--- a/体重记录.xlsx
+++ b/体重记录.xlsx
@@ -15,6 +15,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>实际</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
@@ -26,15 +40,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -42,13 +62,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -350,24 +497,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C2"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>43527</v>
+      </c>
+      <c r="C3" s="8">
+        <v>97</v>
+      </c>
+      <c r="D3" s="9">
+        <v>97</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43534</v>
+      </c>
+      <c r="C4" s="8">
+        <v>96</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>43541</v>
+      </c>
+      <c r="C5" s="8">
+        <v>95</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4">
         <v>43548</v>
       </c>
-      <c r="C2">
+      <c r="C6" s="8">
+        <v>94</v>
+      </c>
+      <c r="D6" s="9">
         <v>94.5</v>
       </c>
+      <c r="F6" s="1">
+        <v>43548</v>
+      </c>
+      <c r="G6">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="C7" s="8">
+        <v>93</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>43562</v>
+      </c>
+      <c r="C8" s="8">
+        <v>92</v>
+      </c>
+      <c r="D8" s="9">
+        <v>91.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43561</v>
+      </c>
+      <c r="G8">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>43569</v>
+      </c>
+      <c r="C9" s="8">
+        <v>91</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43576</v>
+      </c>
+      <c r="C10" s="8">
+        <v>90</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>43583</v>
+      </c>
+      <c r="C11" s="8">
+        <v>89</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>43590</v>
+      </c>
+      <c r="C12" s="8">
+        <v>88</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>43597</v>
+      </c>
+      <c r="C13" s="8">
+        <v>87</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43604</v>
+      </c>
+      <c r="C14" s="8">
+        <v>86</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="4">
+        <v>43611</v>
+      </c>
+      <c r="C15" s="8">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>43618</v>
+      </c>
+      <c r="C16" s="8">
+        <v>84</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>43625</v>
+      </c>
+      <c r="C17" s="8">
+        <v>83</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43632</v>
+      </c>
+      <c r="C18" s="8">
+        <v>82</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>43639</v>
+      </c>
+      <c r="C19" s="8">
+        <v>81</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
+        <v>43646</v>
+      </c>
+      <c r="C20" s="8">
+        <v>80</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>43653</v>
+      </c>
+      <c r="C21" s="8">
+        <v>79</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>43660</v>
+      </c>
+      <c r="C22" s="8">
+        <v>78</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43667</v>
+      </c>
+      <c r="C23" s="8">
+        <v>77.5</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="4">
+        <v>43674</v>
+      </c>
+      <c r="C24" s="8">
+        <v>77</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <v>43681</v>
+      </c>
+      <c r="C25" s="8">
+        <v>76.5</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>43688</v>
+      </c>
+      <c r="C26" s="8">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43695</v>
+      </c>
+      <c r="C27" s="8">
+        <v>75.5</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
+        <v>43702</v>
+      </c>
+      <c r="C28" s="10">
+        <v>75</v>
+      </c>
+      <c r="D28" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/体重记录.xlsx
+++ b/体重记录.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,7 +604,9 @@
       <c r="C9" s="8">
         <v>91</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <v>91.8</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">

--- a/体重记录.xlsx
+++ b/体重记录.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,6 +607,12 @@
       <c r="D9" s="9">
         <v>91.8</v>
       </c>
+      <c r="F9" s="1">
+        <v>43574</v>
+      </c>
+      <c r="G9">
+        <v>91.1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -618,7 +624,15 @@
       <c r="C10" s="8">
         <v>90</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <v>90.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43574</v>
+      </c>
+      <c r="G10">
+        <v>91.1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4">

--- a/体重记录.xlsx
+++ b/体重记录.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,15 @@
       <c r="C11" s="8">
         <v>89</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>90.3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43583</v>
+      </c>
+      <c r="G11">
+        <v>90.6</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
@@ -651,6 +659,12 @@
         <v>88</v>
       </c>
       <c r="D12" s="9"/>
+      <c r="F12" s="1">
+        <v>43584</v>
+      </c>
+      <c r="G12">
+        <v>90.6</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3">

--- a/体重记录.xlsx
+++ b/体重记录.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,6 +674,12 @@
         <v>87</v>
       </c>
       <c r="D13" s="9"/>
+      <c r="F13" s="1">
+        <v>43606</v>
+      </c>
+      <c r="G13">
+        <v>89.8</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
